--- a/data/donnees_ID RENTAL_2023-07-21.xlsx
+++ b/data/donnees_ID RENTAL_2023-07-21.xlsx
@@ -543,31 +543,31 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CL01001006</t>
+          <t>CL01001000</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>STAR</t>
+          <t>INVISO GROUP</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1731609732.97</v>
+        <v>-744215793.1799999</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>177353046.38</v>
+        <v>49709240.36</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>376760746.75</v>
+        <v>19111725.65</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>24348857.93</v>
+        <v>66026371.09</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1824174458.51</v>
+        <v>790058895.67</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>671027376.6</v>
+        <v>180690439.59</v>
       </c>
     </row>
     <row r="4">
@@ -578,31 +578,31 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CL01001000</t>
+          <t>CL01000784</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>INVISO GROUP</t>
+          <t>ID MOTORS</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-744215793.1799999</v>
+        <v>-73320944.44</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>49709240.36</v>
+        <v>97982136.44</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>19111725.65</v>
+        <v>90175175.40000001</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>66026371.09</v>
+        <v>153517664.67</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>790058895.67</v>
+        <v>1017636942.02</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>180690439.59</v>
+        <v>1285990974.09</v>
       </c>
     </row>
     <row r="5">
@@ -613,31 +613,31 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CL01000784</t>
+          <t>CL01000795</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>ID MOTORS</t>
+          <t>FIRST ENERGY SARL</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-73320944.44</v>
+        <v>-49632558</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>97982136.44</v>
+        <v>90261794.73</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>90175175.40000001</v>
+        <v>8528420.720000001</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>153517664.67</v>
+        <v>10766984.96</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1017636942.02</v>
+        <v>75765375.51000001</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1285990974.09</v>
+        <v>135690017.92</v>
       </c>
     </row>
     <row r="6">
@@ -648,31 +648,31 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>CL01000795</t>
+          <t>CL01000001</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>FIRST ENERGY SARL</t>
+          <t>SMTP</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-49632558</v>
+        <v>-229043342.41</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>90261794.73</v>
+        <v>21374461.49</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8528420.720000001</v>
+        <v>25765384.96</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>10766984.96</v>
+        <v>40138021.49</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>75765375.51000001</v>
+        <v>336084012.42</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>135690017.92</v>
+        <v>194318537.95</v>
       </c>
     </row>
     <row r="7">
@@ -683,31 +683,31 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CL01000001</t>
+          <t>CL01000005</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>SMTP</t>
+          <t>AGRIVET</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-229043342.41</v>
+        <v>-425319534.7</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>21374461.49</v>
+        <v>46309099.76</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>25765384.96</v>
+        <v>86049947.19</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>40138021.49</v>
+        <v>98589535.63</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>336084012.42</v>
+        <v>475290068.97</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>194318537.95</v>
+        <v>280919116.85</v>
       </c>
     </row>
     <row r="8">
@@ -718,31 +718,31 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CL01000005</t>
+          <t>CL01000008</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>AGRIVET</t>
+          <t>IDF</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-425319534.7</v>
+        <v>-19258161.58</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>46309099.76</v>
+        <v>1021965.77</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>86049947.19</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>98589535.63</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>475290068.97</v>
+        <v>21077163.33</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>280919116.85</v>
+        <v>2840967.52</v>
       </c>
     </row>
     <row r="9">
@@ -753,31 +753,31 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>CL01000008</t>
+          <t>CL01000038</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>IDF</t>
+          <t>VIGIE</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-19258161.58</v>
+        <v>-17316000</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1021965.77</v>
+        <v>9000000</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>15864000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0</v>
+        <v>15271354.84</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>21077163.33</v>
+        <v>91634709.68000001</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>2840967.52</v>
+        <v>114454064.52</v>
       </c>
     </row>
     <row r="10">
@@ -788,31 +788,31 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>CL01000038</t>
+          <t>CL01000507</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>VIGIE</t>
+          <t>AGRIFARM</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-17316000</v>
+        <v>-126638286.54</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>9000000</v>
+        <v>13659670.41</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>15864000</v>
+        <v>51194735.28</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>15271354.84</v>
+        <v>56979551</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>91634709.68000001</v>
+        <v>154250518.76</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>114454064.52</v>
+        <v>149446188.91</v>
       </c>
     </row>
     <row r="11">
@@ -823,31 +823,31 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>CL01000507</t>
+          <t>CL01000521</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>AGRIFARM</t>
+          <t>AGRIVAL</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-126638286.54</v>
+        <v>-445888966.11</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>13659670.41</v>
+        <v>80409266.37</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>51194735.28</v>
+        <v>91190142.06</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>56979551</v>
+        <v>104844044.61</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>154250518.76</v>
+        <v>396690883.36</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>149446188.91</v>
+        <v>227245370.29</v>
       </c>
     </row>
     <row r="12">
@@ -858,31 +858,31 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CL01000521</t>
+          <t>CL01000047</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>AGRIVAL</t>
+          <t>ONG BOVIMA</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-445888966.11</v>
+        <v>-5160000</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>80409266.37</v>
+        <v>583805.4</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>91190142.06</v>
+        <v>4196237.76</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>104844044.61</v>
+        <v>4082908.02</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>396690883.36</v>
+        <v>20086914.34</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>227245370.29</v>
+        <v>23789865.52</v>
       </c>
     </row>
     <row r="13">
@@ -893,31 +893,31 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>CL01000047</t>
+          <t>CL01000771</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>ONG BOVIMA</t>
+          <t>BOVIMA</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-5160000</v>
+        <v>-273514792.53</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>583805.4</v>
+        <v>930583.98</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4196237.76</v>
+        <v>29287891.56</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4082908.02</v>
+        <v>27818392.91</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>20086914.34</v>
+        <v>288180389.11</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>23789865.52</v>
+        <v>72702465.03</v>
       </c>
     </row>
     <row r="14">
@@ -928,31 +928,31 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>CL01000771</t>
+          <t>CL01000745</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>BOVIMA</t>
+          <t>SOCIETE IMMOBLIERE DE MAHAJANGA</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-273514792.53</v>
+        <v>-5484000</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>930583.98</v>
+        <v>1704080.4</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>29287891.56</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>27818392.91</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>288180389.11</v>
+        <v>8556000</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>72702465.03</v>
+        <v>4776080.4</v>
       </c>
     </row>
     <row r="15">
@@ -963,31 +963,31 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>CL01000745</t>
+          <t>CL01000834</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>SOCIETE IMMOBLIERE DE MAHAJANGA</t>
+          <t>MABEL</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-5484000</v>
+        <v>-170504855.35</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1704080.4</v>
+        <v>24172722.48</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>58776304.17</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0</v>
+        <v>82692742.19</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>8556000</v>
+        <v>555915111.28</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>4776080.4</v>
+        <v>551052024.77</v>
       </c>
     </row>
     <row r="16">
@@ -998,31 +998,31 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CL01000834</t>
+          <t>CL01000985</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>MABEL</t>
+          <t>ETABLISSEMENT ROSTAING</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-170504855.35</v>
+        <v>-40800000</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>24172722.48</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>58776304.17</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>82692742.19</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>555915111.28</v>
+        <v>59520000</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>551052024.77</v>
+        <v>18720000</v>
       </c>
     </row>
     <row r="17">
@@ -1033,31 +1033,31 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>CL01000985</t>
+          <t>CL01000999</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>ETABLISSEMENT ROSTAING</t>
+          <t>INTERKEM</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-40800000</v>
+        <v>-37994934.55</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0</v>
+        <v>12522813.51</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0</v>
+        <v>1823612.62</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0</v>
+        <v>9414110.99</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>59520000</v>
+        <v>47810482.84</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>18720000</v>
+        <v>33576085.41</v>
       </c>
     </row>
     <row r="18">
@@ -1068,31 +1068,31 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CL01000999</t>
+          <t>CL01000972</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>INTERKEM</t>
+          <t>AGRIKOBA</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-37994934.55</v>
+        <v>-53329492</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>12522813.51</v>
+        <v>4060955.11</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1823612.62</v>
+        <v>2580008.75</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>9414110.99</v>
+        <v>6376170.61</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>47810482.84</v>
+        <v>37081348.52</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>33576085.41</v>
+        <v>-3231009.01</v>
       </c>
     </row>
     <row r="19">
@@ -1103,31 +1103,31 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>CL01000972</t>
+          <t>CL01000849</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>AGRIKOBA</t>
+          <t>HOMEOPHARMA</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-53329492</v>
+        <v>2223035.63</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>4060955.11</v>
+        <v>2301594.49</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3936008.75</v>
+        <v>6290446.43</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6376170.61</v>
+        <v>1008018.7</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>37081348.52</v>
+        <v>36042211.4</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-1875009.01</v>
+        <v>47865306.65</v>
       </c>
     </row>
     <row r="20">
@@ -1138,31 +1138,31 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>CL01000849</t>
+          <t>CL01000973</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>HOMEOPHARMA</t>
+          <t>LE DOMAINE D'ILO SARL</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2223035.63</v>
+        <v>-62202968</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2301594.49</v>
+        <v>6336000</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6290446.43</v>
+        <v>6336000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1008018.7</v>
+        <v>6336000</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>36042211.4</v>
+        <v>87546967.73999999</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>47865306.65</v>
+        <v>44351999.74</v>
       </c>
     </row>
     <row r="21">
@@ -1173,31 +1173,31 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>CL01000973</t>
+          <t>CL01000850</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>LE DOMAINE D'ILO SARL</t>
+          <t>PROFILAGE DE MADAGASCAR</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-62202968</v>
+        <v>-22462319.87</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6336000</v>
+        <v>1411302.19</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6336000</v>
+        <v>5584906.01</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6336000</v>
+        <v>1344288.53</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>87546967.73999999</v>
+        <v>31989289.72</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>44351999.74</v>
+        <v>17867466.58</v>
       </c>
     </row>
     <row r="22">
@@ -1208,31 +1208,31 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CL01000850</t>
+          <t>CL01000976</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>PROFILAGE DE MADAGASCAR</t>
+          <t>IOI (SAVONY SALAMA)</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-22462319.87</v>
+        <v>-66973120.05</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1411302.19</v>
+        <v>8080798.84</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5584906.01</v>
+        <v>23022306.32</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1344288.53</v>
+        <v>23227975.46</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>31989289.72</v>
+        <v>147159299.09</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>17867466.58</v>
+        <v>134517259.66</v>
       </c>
     </row>
     <row r="23">
@@ -1243,31 +1243,31 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>CL01000976</t>
+          <t>CL01000026</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>IOI (SAVONY SALAMA)</t>
+          <t>GALANA DISTRIBUTION PETROLIERE SA</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-66973120.05</v>
+        <v>-50724559.08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>8080798.84</v>
+        <v>25254160.01</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>23022306.32</v>
+        <v>17130707.42</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>23227975.46</v>
+        <v>19645726.7</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>147159299.09</v>
+        <v>72750611.38</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>134517259.66</v>
+        <v>84056646.43000001</v>
       </c>
     </row>
     <row r="24">
@@ -1278,31 +1278,31 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>CL01000026</t>
+          <t>CL01000016</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>GALANA DISTRIBUTION PETROLIERE SA</t>
+          <t>SOCIETE IMMOBILIERE RYA</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-50724559.08</v>
+        <v>-2913465.26</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>25254160.01</v>
+        <v>676955.22</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>17130707.42</v>
+        <v>4341260.78</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>19645726.7</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>72750611.38</v>
+        <v>2913465.26</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>84056646.43000001</v>
+        <v>5018216</v>
       </c>
     </row>
     <row r="25">
@@ -1313,31 +1313,31 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>CL01000016</t>
+          <t>CL01000975</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>SOCIETE IMMOBILIERE RYA</t>
+          <t>AGRIVET TAMATAVE</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-2913465.26</v>
+        <v>-11194226.87</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>676955.22</v>
+        <v>1993865.92</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4341260.78</v>
+        <v>1883093.83</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0</v>
+        <v>2063544.98</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>2913465.26</v>
+        <v>8101653.13</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>5018216</v>
+        <v>2847930.99</v>
       </c>
     </row>
     <row r="26">
@@ -1348,31 +1348,31 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>CL01000975</t>
+          <t>CL01000010</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>AGRIVET TAMATAVE</t>
+          <t xml:space="preserve">COLAS MADAGASCAR </t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-11194226.87</v>
+        <v>617722920.3099999</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1993865.92</v>
+        <v>939721525.51</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1883093.83</v>
+        <v>209308416.3</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2063544.98</v>
+        <v>841557897.72</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>8101653.13</v>
+        <v>1443445974.07</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>2847930.99</v>
+        <v>4051756733.91</v>
       </c>
     </row>
     <row r="27">
@@ -1383,31 +1383,31 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>CL01000010</t>
+          <t>CL01000847</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLAS MADAGASCAR </t>
+          <t>UNITED MALAGASY</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>617722920.3099999</v>
+        <v>-87124768.44</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>939721525.51</v>
+        <v>3607898.85</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>209308416.3</v>
+        <v>3424720.75</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>841557897.72</v>
+        <v>8211970.36</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>1443445974.07</v>
+        <v>119567603.13</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>4051756733.91</v>
+        <v>47687424.65</v>
       </c>
     </row>
     <row r="28">
@@ -1418,31 +1418,31 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>CL01000847</t>
+          <t>CL01001006</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>UNITED MALAGASY</t>
+          <t>STAR</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-87124768.44</v>
+        <v>-1393540087.12</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>3607898.85</v>
+        <v>177353046.38</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3424720.75</v>
+        <v>376760746.75</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>8211970.36</v>
+        <v>24348857.93</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>119567603.13</v>
+        <v>1486104812.61</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>47687424.65</v>
+        <v>671027376.55</v>
       </c>
     </row>
     <row r="29">

--- a/data/donnees_ID RENTAL_2023-07-21.xlsx
+++ b/data/donnees_ID RENTAL_2023-07-21.xlsx
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-170504855.35</v>
+        <v>-63060844.49</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>24172722.48</v>
@@ -984,7 +984,7 @@
         <v>82692742.19</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>555915111.28</v>
+        <v>448471100.42</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>551052024.77</v>

--- a/data/donnees_ID RENTAL_2023-07-21.xlsx
+++ b/data/donnees_ID RENTAL_2023-07-21.xlsx
@@ -718,31 +718,31 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CL01000008</t>
+          <t>CL01000038</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>IDF</t>
+          <t>VIGIE</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-19258161.58</v>
+        <v>-17316000</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1021965.77</v>
+        <v>9000000</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>15864000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>15271354.84</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>21077163.33</v>
+        <v>91634709.68000001</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>2840967.52</v>
+        <v>114454064.52</v>
       </c>
     </row>
     <row r="9">
@@ -753,31 +753,31 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>CL01000038</t>
+          <t>CL01000507</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>VIGIE</t>
+          <t>AGRIFARM</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-17316000</v>
+        <v>-126638286.54</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>9000000</v>
+        <v>13659670.41</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>15864000</v>
+        <v>51194735.28</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>15271354.84</v>
+        <v>56979551</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>91634709.68000001</v>
+        <v>154250518.76</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>114454064.52</v>
+        <v>149446188.91</v>
       </c>
     </row>
     <row r="10">
@@ -788,31 +788,31 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>CL01000507</t>
+          <t>CL01000521</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>AGRIFARM</t>
+          <t>AGRIVAL</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-126638286.54</v>
+        <v>-445888966.11</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>13659670.41</v>
+        <v>80409266.37</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>51194735.28</v>
+        <v>91190142.06</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>56979551</v>
+        <v>104844044.61</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>154250518.76</v>
+        <v>396690883.36</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>149446188.91</v>
+        <v>227245370.29</v>
       </c>
     </row>
     <row r="11">
@@ -823,31 +823,31 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>CL01000521</t>
+          <t>CL01000047</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>AGRIVAL</t>
+          <t>ONG BOVIMA</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-445888966.11</v>
+        <v>-5160000</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>80409266.37</v>
+        <v>583805.4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>91190142.06</v>
+        <v>4196237.76</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>104844044.61</v>
+        <v>4082908.02</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>396690883.36</v>
+        <v>20086914.34</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>227245370.29</v>
+        <v>23789865.52</v>
       </c>
     </row>
     <row r="12">
@@ -858,31 +858,31 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CL01000047</t>
+          <t>CL01000771</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ONG BOVIMA</t>
+          <t>BOVIMA</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-5160000</v>
+        <v>-273514792.53</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>583805.4</v>
+        <v>930583.98</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4196237.76</v>
+        <v>29287891.56</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4082908.02</v>
+        <v>27818392.91</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>20086914.34</v>
+        <v>288180389.11</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>23789865.52</v>
+        <v>72702465.03</v>
       </c>
     </row>
     <row r="13">
@@ -893,31 +893,31 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>CL01000771</t>
+          <t>CL01000745</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>BOVIMA</t>
+          <t>SOCIETE IMMOBLIERE DE MAHAJANGA</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-273514792.53</v>
+        <v>-5484000</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>930583.98</v>
+        <v>1704080.4</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>29287891.56</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>27818392.91</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>288180389.11</v>
+        <v>8556000</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>72702465.03</v>
+        <v>4776080.4</v>
       </c>
     </row>
     <row r="14">
@@ -928,31 +928,31 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>CL01000745</t>
+          <t>CL01000834</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>SOCIETE IMMOBLIERE DE MAHAJANGA</t>
+          <t>MABEL</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-5484000</v>
+        <v>-63060844.49</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1704080.4</v>
+        <v>24172722.48</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>58776304.17</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0</v>
+        <v>82692742.19</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>8556000</v>
+        <v>448471100.42</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>4776080.4</v>
+        <v>551052024.77</v>
       </c>
     </row>
     <row r="15">
@@ -963,31 +963,31 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>CL01000834</t>
+          <t>CL01000985</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>MABEL</t>
+          <t>ETABLISSEMENT ROSTAING</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-63060844.49</v>
+        <v>-40800000</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>24172722.48</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>58776304.17</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>82692742.19</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>448471100.42</v>
+        <v>59520000</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>551052024.77</v>
+        <v>18720000</v>
       </c>
     </row>
     <row r="16">
@@ -998,31 +998,31 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CL01000985</t>
+          <t>CL01000999</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>ETABLISSEMENT ROSTAING</t>
+          <t>INTERKEM</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-40800000</v>
+        <v>-37994934.55</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>12522813.51</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>1823612.62</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>9414110.99</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>59520000</v>
+        <v>47810482.84</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>18720000</v>
+        <v>33576085.41</v>
       </c>
     </row>
     <row r="17">
@@ -1033,31 +1033,31 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>CL01000999</t>
+          <t>CL01000972</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>INTERKEM</t>
+          <t>AGRIKOBA</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-37994934.55</v>
+        <v>-53329492</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>12522813.51</v>
+        <v>4060955.11</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1823612.62</v>
+        <v>2580008.75</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>9414110.99</v>
+        <v>6376170.61</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>47810482.84</v>
+        <v>37081348.52</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>33576085.41</v>
+        <v>-3231009.01</v>
       </c>
     </row>
     <row r="18">
@@ -1068,31 +1068,31 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CL01000972</t>
+          <t>CL01000849</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>AGRIKOBA</t>
+          <t>HOMEOPHARMA</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-53329492</v>
+        <v>2223035.63</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>4060955.11</v>
+        <v>2301594.49</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2580008.75</v>
+        <v>6290446.43</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6376170.61</v>
+        <v>1008018.7</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>37081348.52</v>
+        <v>36042211.4</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-3231009.01</v>
+        <v>47865306.65</v>
       </c>
     </row>
     <row r="19">
@@ -1103,31 +1103,31 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>CL01000849</t>
+          <t>CL01000973</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>HOMEOPHARMA</t>
+          <t>LE DOMAINE D'ILO SARL</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2223035.63</v>
+        <v>-62202968</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2301594.49</v>
+        <v>6336000</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6290446.43</v>
+        <v>6336000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1008018.7</v>
+        <v>6336000</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>36042211.4</v>
+        <v>87546967.73999999</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>47865306.65</v>
+        <v>44351999.74</v>
       </c>
     </row>
     <row r="20">
@@ -1138,31 +1138,31 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>CL01000973</t>
+          <t>CL01000850</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>LE DOMAINE D'ILO SARL</t>
+          <t>PROFILAGE DE MADAGASCAR</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-62202968</v>
+        <v>-22462319.87</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6336000</v>
+        <v>1411302.19</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6336000</v>
+        <v>5584906.01</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6336000</v>
+        <v>1344288.53</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>87546967.73999999</v>
+        <v>31989289.72</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>44351999.74</v>
+        <v>17867466.58</v>
       </c>
     </row>
     <row r="21">
@@ -1173,31 +1173,31 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>CL01000850</t>
+          <t>CL01000976</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>PROFILAGE DE MADAGASCAR</t>
+          <t>IOI (SAVONY SALAMA)</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-22462319.87</v>
+        <v>-66973120.05</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1411302.19</v>
+        <v>8080798.84</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5584906.01</v>
+        <v>23022306.32</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1344288.53</v>
+        <v>23227975.46</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>31989289.72</v>
+        <v>147159299.09</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>17867466.58</v>
+        <v>134517259.66</v>
       </c>
     </row>
     <row r="22">
@@ -1208,31 +1208,31 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CL01000976</t>
+          <t>CL01000026</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>IOI (SAVONY SALAMA)</t>
+          <t>GALANA DISTRIBUTION PETROLIERE SA</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-66973120.05</v>
+        <v>-50724559.08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>8080798.84</v>
+        <v>25254160.01</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>23022306.32</v>
+        <v>17130707.42</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>23227975.46</v>
+        <v>19645726.7</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>147159299.09</v>
+        <v>72750611.38</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>134517259.66</v>
+        <v>84056646.43000001</v>
       </c>
     </row>
     <row r="23">
@@ -1243,31 +1243,31 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>CL01000026</t>
+          <t>CL01000016</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>GALANA DISTRIBUTION PETROLIERE SA</t>
+          <t>SOCIETE IMMOBILIERE RYA</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-50724559.08</v>
+        <v>-2913465.26</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>25254160.01</v>
+        <v>676955.22</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>17130707.42</v>
+        <v>4341260.78</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>19645726.7</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>72750611.38</v>
+        <v>2913465.26</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>84056646.43000001</v>
+        <v>5018216</v>
       </c>
     </row>
     <row r="24">
@@ -1278,31 +1278,31 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>CL01000016</t>
+          <t>CL01000975</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>SOCIETE IMMOBILIERE RYA</t>
+          <t>AGRIVET TAMATAVE</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-2913465.26</v>
+        <v>-11194226.87</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>676955.22</v>
+        <v>1993865.92</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4341260.78</v>
+        <v>1883093.83</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
+        <v>2063544.98</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2913465.26</v>
+        <v>8101653.13</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>5018216</v>
+        <v>2847930.99</v>
       </c>
     </row>
     <row r="25">
@@ -1313,31 +1313,31 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>CL01000975</t>
+          <t>CL01000010</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>AGRIVET TAMATAVE</t>
+          <t xml:space="preserve">COLAS MADAGASCAR </t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-11194226.87</v>
+        <v>617722920.3099999</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1993865.92</v>
+        <v>939721525.51</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1883093.83</v>
+        <v>209308416.3</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2063544.98</v>
+        <v>841557897.72</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>8101653.13</v>
+        <v>1443445974.07</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>2847930.99</v>
+        <v>4051756733.91</v>
       </c>
     </row>
     <row r="26">
@@ -1348,31 +1348,31 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>CL01000010</t>
+          <t>CL01000847</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">COLAS MADAGASCAR </t>
+          <t>UNITED MALAGASY</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>617722920.3099999</v>
+        <v>-87124768.44</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>939721525.51</v>
+        <v>3607898.85</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>209308416.3</v>
+        <v>3424720.75</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>841557897.72</v>
+        <v>8211970.36</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>1443445974.07</v>
+        <v>119567603.13</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>4051756733.91</v>
+        <v>47687424.65</v>
       </c>
     </row>
     <row r="27">
@@ -1383,31 +1383,31 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>CL01000847</t>
+          <t>CL01001006</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>UNITED MALAGASY</t>
+          <t>STAR</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-87124768.44</v>
+        <v>-1393540087.12</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>3607898.85</v>
+        <v>177353046.38</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3424720.75</v>
+        <v>376760746.75</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8211970.36</v>
+        <v>24348857.93</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>119567603.13</v>
+        <v>1486104812.61</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>47687424.65</v>
+        <v>671027376.55</v>
       </c>
     </row>
     <row r="28">
@@ -1418,31 +1418,31 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>CL01001006</t>
+          <t>CL01001029</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>STAR</t>
+          <t>TIRUPATI MADAGASCAR VENTURES SARL</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1393540087.12</v>
+        <v>-39501600</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>177353046.38</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>376760746.75</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>24348857.93</v>
+        <v>112159548</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1486104812.61</v>
+        <v>46701600</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>671027376.55</v>
+        <v>119359548</v>
       </c>
     </row>
     <row r="29">
@@ -1453,16 +1453,16 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>CL01001029</t>
+          <t>CL01001052</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>TIRUPATI MADAGASCAR VENTURES SARL</t>
+          <t>SODIREX SA</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-39501600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>112159548</v>
+        <v>1713250.74</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>46701600</v>
+        <v>1250000</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>119359548</v>
+        <v>2963250.74</v>
       </c>
     </row>
     <row r="30">
@@ -1488,31 +1488,31 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>CL01001052</t>
+          <t>CL01000023</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>SODIREX SA</t>
+          <t>NEW PACK</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0</v>
+        <v>79117132.76000001</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0</v>
+        <v>675320.34</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1713250.74</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>1250000</v>
+        <v>67442703</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>2963250.74</v>
+        <v>147235156.1</v>
       </c>
     </row>
     <row r="31">
@@ -1523,31 +1523,31 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>CL01000023</t>
+          <t>CL01001054</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>NEW PACK</t>
+          <t>RANDRIATIANA ARNAUD</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>79117132.76000001</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>675320.34</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>67442703</v>
+        <v>281499.08</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>147235156.1</v>
+        <v>281499.08</v>
       </c>
     </row>
     <row r="32">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>CL01001054</t>
+          <t>CL01001051</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>RANDRIATIANA ARNAUD</t>
+          <t>PENTA OCEAN CONSTRUCTION CO LTD MADAGASCAR BRANCH</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>281499.08</v>
+        <v>40800000</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>281499.08</v>
+        <v>40800000</v>
       </c>
     </row>
     <row r="33">
@@ -1593,31 +1593,31 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>CL01001051</t>
+          <t>CL01000851</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>PENTA OCEAN CONSTRUCTION CO LTD MADAGASCAR BRANCH</t>
+          <t>NUTRIFOOD</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0</v>
+        <v>-13774449.1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0</v>
+        <v>2324060.67</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0</v>
+        <v>5682461.28</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0</v>
+        <v>9260320.050000001</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>40800000</v>
+        <v>29867110.64</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>40800000</v>
+        <v>33359503.54</v>
       </c>
     </row>
     <row r="34">
@@ -1628,31 +1628,31 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>CL01000851</t>
+          <t>CL01000725</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>NUTRIFOOD</t>
+          <t>FERRIS ENGINEERING</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-13774449.1</v>
+        <v>1372001.12</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2324060.67</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5682461.28</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>9260320.050000001</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>29867110.64</v>
+        <v>-2873600</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>33359503.54</v>
+        <v>-1501598.88</v>
       </c>
     </row>
     <row r="35">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>CL01000725</t>
+          <t>CL01001031</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>FERRIS ENGINEERING</t>
+          <t>COMMUNE URBAINE DE DIEGO SUAREZ</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1372001.12</v>
+        <v>3993106.66</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -1681,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>0</v>
+        <v>126040000</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-2873600</v>
+        <v>48492000</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-1501598.88</v>
+        <v>178525106.66</v>
       </c>
     </row>
     <row r="36">
@@ -1698,31 +1698,31 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>CL01001031</t>
+          <t>CL01000848</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>COMMUNE URBAINE DE DIEGO SUAREZ</t>
+          <t xml:space="preserve">SOCIETE DE METALLURGIE DE L'OCEAN </t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>3993106.66</v>
+        <v>-113546299.27</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0</v>
+        <v>43582820.97</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0</v>
+        <v>59107033.81</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>126040000</v>
+        <v>40639337.16</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>48492000</v>
+        <v>334334015.09</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>178525106.66</v>
+        <v>364116907.76</v>
       </c>
     </row>
     <row r="37">
@@ -1733,31 +1733,31 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CL01000848</t>
+          <t>CL01001046</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOCIETE DE METALLURGIE DE L'OCEAN </t>
+          <t>RAZAFIHARINAIVO MIARY</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-113546299.27</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>43582820.97</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>59107033.81</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>40639337.16</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>334334015.09</v>
+        <v>1968000</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>364116907.76</v>
+        <v>1968000</v>
       </c>
     </row>
     <row r="38">
@@ -1768,31 +1768,31 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>CL01001046</t>
+          <t>CL01000017</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>RAZAFIHARINAIVO MIARY</t>
+          <t>ADESS SA</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0</v>
+        <v>-59280000</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0</v>
+        <v>9360000</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0</v>
+        <v>140400000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0</v>
+        <v>-102960000</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>1968000</v>
+        <v>6240000</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>1968000</v>
+        <v>-6240000</v>
       </c>
     </row>
     <row r="39">
@@ -1803,31 +1803,31 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>CL01000017</t>
+          <t>CL01000846</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>ADESS SA</t>
+          <t>DITE SARLU</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-59280000</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>9360000</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>140400000</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>-102960000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>6240000</v>
+        <v>2218658.67</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-6240000</v>
+        <v>2218658.67</v>
       </c>
     </row>
     <row r="40">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>CL01000846</t>
+          <t>CL01001055</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>DITE SARLU</t>
+          <t>CAMUSAT MADAGASCAR SARL</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0</v>
+        <v>1355600.35</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>2218658.67</v>
+        <v>1212950.36</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>2218658.67</v>
+        <v>2568550.71</v>
       </c>
     </row>
     <row r="41">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>CL01001055</t>
+          <t>CL01001056</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>CAMUSAT MADAGASCAR SARL</t>
+          <t>BRINK'S MADAGASCAR SA</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1355600.35</v>
+        <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>1212950.36</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>2568550.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1908,19 +1908,19 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>CL01001056</t>
+          <t>CL01000008</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>BRINK'S MADAGASCAR SA</t>
+          <t>IDF</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>-1060940.78</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0</v>
+        <v>1021965.77</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0</v>
+        <v>2179022.05</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>2140047.04</v>
       </c>
     </row>
     <row r="43">
